--- a/dev_tmp/python-report-1.xlsx
+++ b/dev_tmp/python-report-1.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Python_Rep\dev_tmp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1092" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="ИЮЛЬ" sheetId="1" r:id="rId4"/>
+    <sheet name="ИЮЛЬ" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="73">
   <si>
     <t>Some Awesome Company</t>
   </si>
@@ -235,24 +243,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial Cyr"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial Cyr"/>
     </font>
@@ -262,76 +259,76 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Cyr"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="26"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="36"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="22"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="26"/>
       <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="34"/>
       <color indexed="14"/>
       <name val="Arial"/>
@@ -342,19 +339,19 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="20"/>
       <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial Cyr"/>
@@ -1340,559 +1337,469 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="185">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1902,33 +1809,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff1fb714"/>
-      <rgbColor rgb="ffff99cc"/>
-      <rgbColor rgb="fffcf305"/>
-      <rgbColor rgb="ffdd0806"/>
-      <rgbColor rgb="ffff9900"/>
-      <rgbColor rgb="ffccffff"/>
-      <rgbColor rgb="ff00abea"/>
-      <rgbColor rgb="ffff6600"/>
-      <rgbColor rgb="fff20884"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF1FB714"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFCF305"/>
+      <rgbColor rgb="FFDD0806"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF00ABEA"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFF20884"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2130,7 +2089,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2149,7 +2108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2179,7 +2138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2205,7 +2164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2231,7 +2190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2257,7 +2216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2283,7 +2242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2309,7 +2268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2335,7 +2294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2361,7 +2320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2387,7 +2346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2400,9 +2359,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2419,7 +2384,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2438,7 +2403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2464,7 +2429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2490,7 +2455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2516,7 +2481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2542,7 +2507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2568,7 +2533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2594,7 +2559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2620,7 +2585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2646,7 +2611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2672,7 +2637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2685,9 +2650,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2701,7 +2672,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2720,7 +2691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2750,7 +2721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2776,7 +2747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2802,7 +2773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2828,7 +2799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2854,7 +2825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2880,7 +2851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2906,7 +2877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2932,7 +2903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2958,7 +2929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2971,40 +2942,51 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6016" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.60156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.2109" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6016" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="1" customWidth="1"/>
     <col min="6" max="35" width="5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="7.60156" style="1" customWidth="1"/>
-    <col min="37" max="37" width="12.8125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="9.42188" style="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="12.77734375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9.44140625" style="1" customWidth="1"/>
     <col min="39" max="39" width="16" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.8125" style="1" customWidth="1"/>
-    <col min="41" max="256" width="9.21094" style="1" customWidth="1"/>
+    <col min="40" max="40" width="12.77734375" style="1" customWidth="1"/>
+    <col min="41" max="256" width="9.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:40" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>31</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -3045,8 +3027,8 @@
       <c r="AM1" s="4"/>
       <c r="AN1" s="7"/>
     </row>
-    <row r="2" ht="33.1" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="2" spans="1:40" ht="33.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9"/>
@@ -3078,65 +3060,65 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="14"/>
-      <c r="AE2" t="s" s="15">
+      <c r="AE2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="17"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="15"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
       <c r="AN2" s="7"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
+    <row r="3" spans="1:40" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="14"/>
-      <c r="AE3" t="s" s="15">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="17"/>
+      <c r="AE3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="157"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="157"/>
+      <c r="AK3" s="15"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="7"/>
     </row>
-    <row r="4" ht="23.4" customHeight="1">
-      <c r="A4" t="s" s="21">
+    <row r="4" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7"/>
@@ -3168,158 +3150,158 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="14"/>
-      <c r="AE4" t="s" s="22">
+      <c r="AE4" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="24"/>
+      <c r="AF4" s="155"/>
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="155"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="20"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="7"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="26"/>
+    <row r="5" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="22"/>
     </row>
-    <row r="6" ht="44.8" customHeight="1">
-      <c r="A6" t="s" s="31">
+    <row r="6" spans="1:40" ht="44.85" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" t="s" s="33">
+      <c r="B6" s="182"/>
+      <c r="C6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="39"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="33"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" t="s" s="44">
+    <row r="7" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
     </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" t="s" s="47">
+    <row r="8" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3327,2131 +3309,2131 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="48"/>
-      <c r="M8" t="s" s="49">
-        <v>9</v>
-      </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="51"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="43"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="176"/>
+      <c r="AL8" s="177"/>
+      <c r="AM8" s="177"/>
+      <c r="AN8" s="177"/>
     </row>
-    <row r="9" ht="39.75" customHeight="1">
+    <row r="9" spans="1:40" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" t="s" s="57">
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="47" t="s">
         <v>10</v>
       </c>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="59">
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="49">
         <v>167</v>
       </c>
-      <c r="AL9" t="s" s="60">
+      <c r="AL9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="AM9" s="48"/>
+      <c r="AM9" s="42"/>
       <c r="AN9" s="7"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="61"/>
+    <row r="10" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="51"/>
     </row>
-    <row r="11" ht="54.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" t="s" s="65">
+    <row r="11" spans="1:40" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" t="s" s="68">
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="166"/>
+      <c r="T11" s="166"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="166"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="166"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
+      <c r="AD11" s="167"/>
+      <c r="AE11" s="166"/>
+      <c r="AF11" s="166"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="166"/>
+      <c r="AI11" s="166"/>
+      <c r="AJ11" s="167"/>
+      <c r="AK11" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="AL11" t="s" s="69">
+      <c r="AL11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AM11" t="s" s="69">
+      <c r="AM11" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AN11" t="s" s="70">
+      <c r="AN11" s="178" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="44.25" customHeight="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="74">
+    <row r="12" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="59">
         <v>1</v>
       </c>
-      <c r="G12" s="75">
-        <v>2</v>
-      </c>
-      <c r="H12" s="76">
+      <c r="G12" s="60">
+        <v>2</v>
+      </c>
+      <c r="H12" s="61">
         <v>3</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="62">
         <v>4</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="62">
         <v>5</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="62">
         <v>6</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="62">
         <v>7</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="60">
         <v>8</v>
       </c>
-      <c r="N12" s="77">
-        <v>9</v>
-      </c>
-      <c r="O12" s="77">
+      <c r="N12" s="62">
+        <v>9</v>
+      </c>
+      <c r="O12" s="62">
         <v>10</v>
       </c>
-      <c r="P12" s="77">
+      <c r="P12" s="62">
         <v>11</v>
       </c>
-      <c r="Q12" s="77">
+      <c r="Q12" s="62">
         <v>12</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="62">
         <v>13</v>
       </c>
-      <c r="S12" s="75">
+      <c r="S12" s="60">
         <v>14</v>
       </c>
-      <c r="T12" s="75">
+      <c r="T12" s="60">
         <v>15</v>
       </c>
-      <c r="U12" s="77">
+      <c r="U12" s="62">
         <v>16</v>
       </c>
-      <c r="V12" s="77">
+      <c r="V12" s="62">
         <v>17</v>
       </c>
-      <c r="W12" s="77">
+      <c r="W12" s="62">
         <v>18</v>
       </c>
-      <c r="X12" s="77">
+      <c r="X12" s="62">
         <v>19</v>
       </c>
-      <c r="Y12" s="77">
+      <c r="Y12" s="62">
         <v>20</v>
       </c>
-      <c r="Z12" s="75">
+      <c r="Z12" s="60">
         <v>21</v>
       </c>
-      <c r="AA12" s="75">
+      <c r="AA12" s="60">
         <v>22</v>
       </c>
-      <c r="AB12" s="77">
+      <c r="AB12" s="62">
         <v>23</v>
       </c>
-      <c r="AC12" s="77">
+      <c r="AC12" s="62">
         <v>24</v>
       </c>
-      <c r="AD12" s="78">
+      <c r="AD12" s="63">
         <v>25</v>
       </c>
-      <c r="AE12" s="77">
+      <c r="AE12" s="62">
         <v>26</v>
       </c>
-      <c r="AF12" s="77">
+      <c r="AF12" s="62">
         <v>27</v>
       </c>
-      <c r="AG12" s="75">
+      <c r="AG12" s="60">
         <v>28</v>
       </c>
-      <c r="AH12" s="75">
+      <c r="AH12" s="60">
         <v>29</v>
       </c>
-      <c r="AI12" s="77">
+      <c r="AI12" s="62">
         <v>30</v>
       </c>
-      <c r="AJ12" s="79">
+      <c r="AJ12" s="64">
         <v>31</v>
       </c>
-      <c r="AK12" s="80"/>
-      <c r="AL12" t="s" s="81">
+      <c r="AK12" s="173"/>
+      <c r="AL12" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AM12" t="s" s="81">
+      <c r="AM12" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AN12" s="82"/>
+      <c r="AN12" s="179"/>
     </row>
-    <row r="13" ht="48.75" customHeight="1">
-      <c r="A13" t="s" s="83">
+    <row r="13" spans="1:40" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s" s="83">
+      <c r="B13" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s" s="84">
+      <c r="C13" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s" s="85">
+      <c r="D13" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" t="s" s="87">
+      <c r="E13" s="69"/>
+      <c r="F13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="s" s="87">
+      <c r="G13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s" s="88">
+      <c r="H13" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I13" t="s" s="89">
+      <c r="I13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="J13" t="s" s="89">
+      <c r="J13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s" s="89">
+      <c r="K13" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="L13" t="s" s="89">
+      <c r="L13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="M13" t="s" s="87">
+      <c r="M13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="N13" t="s" s="89">
+      <c r="N13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O13" t="s" s="89">
+      <c r="O13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="P13" t="s" s="89">
+      <c r="P13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" t="s" s="89">
+      <c r="Q13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="R13" t="s" s="89">
+      <c r="R13" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="S13" t="s" s="87">
+      <c r="S13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="T13" t="s" s="87">
+      <c r="T13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="U13" t="s" s="89">
+      <c r="U13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="V13" t="s" s="89">
+      <c r="V13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="W13" t="s" s="89">
+      <c r="W13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="X13" t="s" s="89">
+      <c r="X13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="Y13" t="s" s="89">
+      <c r="Y13" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" t="s" s="87">
+      <c r="Z13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" t="s" s="87">
+      <c r="AA13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" t="s" s="89">
+      <c r="AB13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="AC13" t="s" s="89">
+      <c r="AC13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AD13" t="s" s="90">
+      <c r="AD13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AE13" t="s" s="89">
+      <c r="AE13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="AF13" t="s" s="89">
+      <c r="AF13" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AG13" t="s" s="87">
+      <c r="AG13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AH13" t="s" s="87">
+      <c r="AH13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AI13" t="s" s="89">
+      <c r="AI13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="AJ13" t="s" s="90">
+      <c r="AJ13" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" t="s" s="93">
+      <c r="AK13" s="174"/>
+      <c r="AL13" s="171"/>
+      <c r="AM13" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="AN13" s="94"/>
+      <c r="AN13" s="180"/>
     </row>
-    <row r="14" ht="20.95" customHeight="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
-      <c r="E14" t="s" s="99">
+    <row r="14" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="78">
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="63">
         <v>1</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="63">
         <v>1</v>
       </c>
-      <c r="K14" s="78">
+      <c r="K14" s="63">
         <v>1</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="63">
         <v>6</v>
       </c>
-      <c r="M14" s="100"/>
-      <c r="N14" s="78">
+      <c r="M14" s="80"/>
+      <c r="N14" s="63">
         <v>1</v>
       </c>
-      <c r="O14" s="78">
+      <c r="O14" s="63">
         <v>1</v>
       </c>
-      <c r="P14" s="78">
+      <c r="P14" s="63">
         <v>1</v>
       </c>
-      <c r="Q14" s="78">
+      <c r="Q14" s="63">
         <v>1</v>
       </c>
-      <c r="R14" s="78">
+      <c r="R14" s="63">
         <v>1</v>
       </c>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="78">
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="63">
         <v>1</v>
       </c>
-      <c r="V14" s="78">
+      <c r="V14" s="63">
         <v>1</v>
       </c>
-      <c r="W14" s="78">
+      <c r="W14" s="63">
         <v>1</v>
       </c>
-      <c r="X14" s="78">
+      <c r="X14" s="63">
         <v>1</v>
       </c>
-      <c r="Y14" s="78">
+      <c r="Y14" s="63">
         <v>1</v>
       </c>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="78">
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="63">
         <v>1</v>
       </c>
-      <c r="AC14" s="78">
+      <c r="AC14" s="63">
         <v>1</v>
       </c>
-      <c r="AD14" s="78">
+      <c r="AD14" s="63">
         <v>1</v>
       </c>
-      <c r="AE14" s="78">
+      <c r="AE14" s="63">
         <v>1</v>
       </c>
-      <c r="AF14" s="78">
+      <c r="AF14" s="63">
         <v>1</v>
       </c>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="78">
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="63">
         <v>1</v>
       </c>
-      <c r="AJ14" s="78">
+      <c r="AJ14" s="63">
         <v>1</v>
       </c>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="104"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="84"/>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
-      <c r="A15" s="105">
+    <row r="15" spans="1:40" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85">
         <v>1</v>
       </c>
-      <c r="B15" t="s" s="106">
+      <c r="B15" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="107">
+      <c r="C15" s="87">
         <v>1</v>
       </c>
-      <c r="D15" t="s" s="106">
+      <c r="D15" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s" s="108">
+      <c r="E15" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s" s="110">
-        <v>35</v>
-      </c>
-      <c r="I15" s="111">
+      <c r="F15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="91">
         <v>8</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="91">
         <v>8</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="91">
         <v>8</v>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="91">
         <v>7</v>
       </c>
-      <c r="M15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="N15" s="111">
+      <c r="M15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="91">
         <v>8</v>
       </c>
-      <c r="O15" s="111">
+      <c r="O15" s="91">
         <v>8</v>
       </c>
-      <c r="P15" s="111">
+      <c r="P15" s="91">
         <v>8</v>
       </c>
-      <c r="Q15" s="111">
+      <c r="Q15" s="91">
         <v>8</v>
       </c>
-      <c r="R15" s="111">
+      <c r="R15" s="91">
         <v>8</v>
       </c>
-      <c r="S15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="T15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="U15" s="111">
+      <c r="S15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="91">
         <v>8</v>
       </c>
-      <c r="V15" s="111">
+      <c r="V15" s="91">
         <v>8</v>
       </c>
-      <c r="W15" s="111">
+      <c r="W15" s="91">
         <v>8</v>
       </c>
-      <c r="X15" s="111">
+      <c r="X15" s="91">
         <v>8</v>
       </c>
-      <c r="Y15" s="111">
+      <c r="Y15" s="91">
         <v>8</v>
       </c>
-      <c r="Z15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AA15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AB15" s="111">
+      <c r="Z15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB15" s="91">
         <v>8</v>
       </c>
-      <c r="AC15" s="111">
+      <c r="AC15" s="91">
         <v>8</v>
       </c>
-      <c r="AD15" s="111">
+      <c r="AD15" s="91">
         <v>8</v>
       </c>
-      <c r="AE15" s="111">
+      <c r="AE15" s="91">
         <v>8</v>
       </c>
-      <c r="AF15" s="111">
+      <c r="AF15" s="91">
         <v>8</v>
       </c>
-      <c r="AG15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AH15" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AI15" s="111">
+      <c r="AG15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH15" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI15" s="91">
         <v>8</v>
       </c>
-      <c r="AJ15" s="111">
+      <c r="AJ15" s="91">
         <v>8</v>
       </c>
-      <c r="AK15" s="112">
+      <c r="AK15" s="92">
         <f>SUM(F15:AJ15)</f>
         <v>167</v>
       </c>
-      <c r="AL15" s="113">
+      <c r="AL15" s="93">
         <f>SUMIF(H15,"&gt;0",H15)+SUMIF(E15,"&gt;0",E15)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="114"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
     </row>
-    <row r="16" ht="20.95" customHeight="1">
-      <c r="A16" s="115"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" t="s" s="99">
+    <row r="16" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="95"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="78">
-        <v>2</v>
-      </c>
-      <c r="M16" s="117">
-        <v>2</v>
-      </c>
-      <c r="N16" s="78">
-        <v>2</v>
-      </c>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="78">
-        <v>2</v>
-      </c>
-      <c r="S16" s="117">
-        <v>2</v>
-      </c>
-      <c r="T16" s="100"/>
-      <c r="U16" s="78">
-        <v>2</v>
-      </c>
-      <c r="V16" s="78">
-        <v>2</v>
-      </c>
-      <c r="W16" s="78">
-        <v>2</v>
-      </c>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="78">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="78">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="78">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="78">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="78">
-        <v>2</v>
-      </c>
-      <c r="AG16" s="117">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="117">
-        <v>2</v>
-      </c>
-      <c r="AI16" s="78">
-        <v>2</v>
-      </c>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="104"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="63">
+        <v>2</v>
+      </c>
+      <c r="M16" s="97">
+        <v>2</v>
+      </c>
+      <c r="N16" s="63">
+        <v>2</v>
+      </c>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="63">
+        <v>2</v>
+      </c>
+      <c r="S16" s="97">
+        <v>2</v>
+      </c>
+      <c r="T16" s="80"/>
+      <c r="U16" s="63">
+        <v>2</v>
+      </c>
+      <c r="V16" s="63">
+        <v>2</v>
+      </c>
+      <c r="W16" s="63">
+        <v>2</v>
+      </c>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="63">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="63">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="63">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="63">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="63">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="97">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="97">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="63">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="84"/>
     </row>
-    <row r="17" ht="35" customHeight="1">
-      <c r="A17" s="105">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s" s="106">
+    <row r="17" spans="1:40" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85">
+        <v>2</v>
+      </c>
+      <c r="B17" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="107">
+      <c r="C17" s="87">
         <v>1</v>
       </c>
-      <c r="D17" t="s" s="106">
+      <c r="D17" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s" s="108">
+      <c r="E17" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s" s="109">
+      <c r="F17" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G17" t="s" s="109">
+      <c r="G17" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="H17" t="s" s="110">
+      <c r="H17" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I17" t="s" s="90">
+      <c r="I17" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J17" t="s" s="90">
+      <c r="J17" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="K17" t="s" s="90">
+      <c r="K17" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="111">
-        <v>9</v>
-      </c>
-      <c r="M17" s="119">
-        <v>9</v>
-      </c>
-      <c r="N17" s="111">
-        <v>9</v>
-      </c>
-      <c r="O17" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="P17" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="Q17" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="R17" s="111">
-        <v>9</v>
-      </c>
-      <c r="S17" s="119">
-        <v>9</v>
-      </c>
-      <c r="T17" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="U17" s="111">
-        <v>9</v>
-      </c>
-      <c r="V17" s="111">
-        <v>9</v>
-      </c>
-      <c r="W17" s="111">
-        <v>9</v>
-      </c>
-      <c r="X17" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="Y17" s="111">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AA17" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AB17" s="111">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="111">
-        <v>9</v>
-      </c>
-      <c r="AD17" s="111">
-        <v>9</v>
-      </c>
-      <c r="AE17" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AF17" s="111">
-        <v>9</v>
-      </c>
-      <c r="AG17" s="119">
-        <v>9</v>
-      </c>
-      <c r="AH17" s="119">
-        <v>9</v>
-      </c>
-      <c r="AI17" s="111">
-        <v>9</v>
-      </c>
-      <c r="AJ17" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AK17" s="112">
+      <c r="L17" s="91">
+        <v>9</v>
+      </c>
+      <c r="M17" s="99">
+        <v>9</v>
+      </c>
+      <c r="N17" s="91">
+        <v>9</v>
+      </c>
+      <c r="O17" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="91">
+        <v>9</v>
+      </c>
+      <c r="S17" s="99">
+        <v>9</v>
+      </c>
+      <c r="T17" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="91">
+        <v>9</v>
+      </c>
+      <c r="V17" s="91">
+        <v>9</v>
+      </c>
+      <c r="W17" s="91">
+        <v>9</v>
+      </c>
+      <c r="X17" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="91">
+        <v>9</v>
+      </c>
+      <c r="Z17" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="91">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="91">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="91">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF17" s="91">
+        <v>9</v>
+      </c>
+      <c r="AG17" s="99">
+        <v>9</v>
+      </c>
+      <c r="AH17" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI17" s="91">
+        <v>9</v>
+      </c>
+      <c r="AJ17" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK17" s="92">
         <f>SUM(F17:AJ17)</f>
         <v>144</v>
       </c>
-      <c r="AL17" s="113">
+      <c r="AL17" s="93">
         <f>SUMIF(H17,"&gt;0",H17)+SUMIF(E17,"&gt;0",E17)</f>
         <v>0</v>
       </c>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="114"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="94"/>
     </row>
-    <row r="18" ht="20.95" customHeight="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" t="s" s="99">
+    <row r="18" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="117">
-        <v>2</v>
-      </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="76">
-        <v>2</v>
-      </c>
-      <c r="I18" s="78">
-        <v>2</v>
-      </c>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="78">
-        <v>2</v>
-      </c>
-      <c r="M18" s="117">
-        <v>2</v>
-      </c>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="78">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="78">
-        <v>2</v>
-      </c>
-      <c r="R18" s="78">
-        <v>2</v>
-      </c>
-      <c r="S18" s="100"/>
-      <c r="T18" s="117">
-        <v>2</v>
-      </c>
-      <c r="U18" s="78">
-        <v>2</v>
-      </c>
-      <c r="V18" s="116"/>
-      <c r="W18" s="78">
+      <c r="F18" s="97">
+        <v>2</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="61">
+        <v>2</v>
+      </c>
+      <c r="I18" s="63">
+        <v>2</v>
+      </c>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="63">
+        <v>2</v>
+      </c>
+      <c r="M18" s="97">
+        <v>2</v>
+      </c>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="63">
+        <v>2</v>
+      </c>
+      <c r="R18" s="63">
+        <v>2</v>
+      </c>
+      <c r="S18" s="80"/>
+      <c r="T18" s="97">
+        <v>2</v>
+      </c>
+      <c r="U18" s="63">
+        <v>2</v>
+      </c>
+      <c r="V18" s="96"/>
+      <c r="W18" s="63">
         <v>3</v>
       </c>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="78">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="117">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="117">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="78">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="78">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="117">
-        <v>2</v>
-      </c>
-      <c r="AH18" s="117">
-        <v>2</v>
-      </c>
-      <c r="AI18" s="78">
-        <v>2</v>
-      </c>
-      <c r="AJ18" s="78">
-        <v>2</v>
-      </c>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="103"/>
-      <c r="AM18" s="103"/>
-      <c r="AN18" s="104"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="63">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="97">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="97">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="63">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="63">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="96"/>
+      <c r="AG18" s="97">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="97">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="63">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="63">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="84"/>
     </row>
-    <row r="19" ht="35" customHeight="1">
-      <c r="A19" s="105">
+    <row r="19" spans="1:40" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="85">
         <v>3</v>
       </c>
-      <c r="B19" t="s" s="106">
+      <c r="B19" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="107">
+      <c r="C19" s="87">
         <v>1</v>
       </c>
-      <c r="D19" t="s" s="106">
+      <c r="D19" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E19" t="s" s="108">
+      <c r="E19" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="119">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="H19" s="120">
-        <v>9</v>
-      </c>
-      <c r="I19" s="111">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="K19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="L19" s="111">
-        <v>9</v>
-      </c>
-      <c r="M19" s="119">
-        <v>9</v>
-      </c>
-      <c r="N19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="O19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="P19" s="111">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="111">
-        <v>9</v>
-      </c>
-      <c r="R19" s="111">
-        <v>9</v>
-      </c>
-      <c r="S19" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="T19" s="119">
-        <v>9</v>
-      </c>
-      <c r="U19" s="111">
-        <v>9</v>
-      </c>
-      <c r="V19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="W19" s="111">
+      <c r="F19" s="99">
+        <v>9</v>
+      </c>
+      <c r="G19" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="100">
+        <v>9</v>
+      </c>
+      <c r="I19" s="91">
+        <v>9</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="91">
+        <v>9</v>
+      </c>
+      <c r="M19" s="99">
+        <v>9</v>
+      </c>
+      <c r="N19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="91">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="91">
+        <v>9</v>
+      </c>
+      <c r="R19" s="91">
+        <v>9</v>
+      </c>
+      <c r="S19" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="99">
+        <v>9</v>
+      </c>
+      <c r="U19" s="91">
+        <v>9</v>
+      </c>
+      <c r="V19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" s="91">
         <v>5</v>
       </c>
-      <c r="X19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="Y19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="119">
-        <v>9</v>
-      </c>
-      <c r="AA19" s="119">
-        <v>9</v>
-      </c>
-      <c r="AB19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AC19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AD19" s="111">
-        <v>9</v>
-      </c>
-      <c r="AE19" s="111">
-        <v>9</v>
-      </c>
-      <c r="AF19" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AG19" s="119">
-        <v>9</v>
-      </c>
-      <c r="AH19" s="119">
-        <v>9</v>
-      </c>
-      <c r="AI19" s="111">
-        <v>9</v>
-      </c>
-      <c r="AJ19" s="111">
-        <v>9</v>
-      </c>
-      <c r="AK19" s="112">
+      <c r="X19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="99">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="99">
+        <v>9</v>
+      </c>
+      <c r="AB19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19" s="91">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="91">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG19" s="99">
+        <v>9</v>
+      </c>
+      <c r="AH19" s="99">
+        <v>9</v>
+      </c>
+      <c r="AI19" s="91">
+        <v>9</v>
+      </c>
+      <c r="AJ19" s="91">
+        <v>9</v>
+      </c>
+      <c r="AK19" s="92">
         <f>SUM(F19:AJ19)</f>
         <v>167</v>
       </c>
-      <c r="AL19" s="113">
+      <c r="AL19" s="93">
         <f>SUMIF(H19,"&gt;0",H19)+SUMIF(E19,"&gt;0",E19)</f>
         <v>9</v>
       </c>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="114"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="94"/>
     </row>
-    <row r="20" ht="20.95" customHeight="1">
-      <c r="A20" s="115"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" t="s" s="99">
+    <row r="20" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="95"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="117">
-        <v>2</v>
-      </c>
-      <c r="H20" s="101"/>
-      <c r="I20" s="78">
-        <v>2</v>
-      </c>
-      <c r="J20" s="78">
-        <v>2</v>
-      </c>
-      <c r="K20" s="78">
-        <v>2</v>
-      </c>
-      <c r="L20" s="116"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="78">
-        <v>2</v>
-      </c>
-      <c r="O20" s="78">
-        <v>2</v>
-      </c>
-      <c r="P20" s="78">
+      <c r="F20" s="80"/>
+      <c r="G20" s="97">
+        <v>2</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="63">
+        <v>2</v>
+      </c>
+      <c r="J20" s="63">
+        <v>2</v>
+      </c>
+      <c r="K20" s="63">
+        <v>2</v>
+      </c>
+      <c r="L20" s="96"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="63">
+        <v>2</v>
+      </c>
+      <c r="O20" s="63">
+        <v>2</v>
+      </c>
+      <c r="P20" s="63">
         <v>3</v>
       </c>
-      <c r="Q20" s="78">
-        <v>2</v>
-      </c>
-      <c r="R20" s="116"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="117">
-        <v>2</v>
-      </c>
-      <c r="U20" s="78">
-        <v>2</v>
-      </c>
-      <c r="V20" s="78">
-        <v>2</v>
-      </c>
-      <c r="W20" s="78">
-        <v>2</v>
-      </c>
-      <c r="X20" s="78">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="78">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="78">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="78">
-        <v>2</v>
-      </c>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="78">
+      <c r="Q20" s="63">
+        <v>2</v>
+      </c>
+      <c r="R20" s="96"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="97">
+        <v>2</v>
+      </c>
+      <c r="U20" s="63">
+        <v>2</v>
+      </c>
+      <c r="V20" s="63">
+        <v>2</v>
+      </c>
+      <c r="W20" s="63">
+        <v>2</v>
+      </c>
+      <c r="X20" s="63">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="63">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="63">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="63">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="63">
         <v>3</v>
       </c>
-      <c r="AF20" s="78">
-        <v>2</v>
-      </c>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="78">
+      <c r="AF20" s="63">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="63">
         <v>4</v>
       </c>
-      <c r="AJ20" s="78">
-        <v>2</v>
-      </c>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="104"/>
+      <c r="AJ20" s="63">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="83"/>
+      <c r="AN20" s="84"/>
     </row>
-    <row r="21" ht="35" customHeight="1">
-      <c r="A21" s="105">
+    <row r="21" spans="1:40" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85">
         <v>4</v>
       </c>
-      <c r="B21" t="s" s="106">
+      <c r="B21" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="107">
+      <c r="C21" s="87">
         <v>1</v>
       </c>
-      <c r="D21" t="s" s="106">
+      <c r="D21" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s" s="108">
+      <c r="E21" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F21" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="G21" s="119">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="110">
-        <v>35</v>
-      </c>
-      <c r="I21" s="111">
-        <v>9</v>
-      </c>
-      <c r="J21" s="111">
-        <v>9</v>
-      </c>
-      <c r="K21" s="111">
-        <v>9</v>
-      </c>
-      <c r="L21" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="M21" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="N21" s="111">
-        <v>9</v>
-      </c>
-      <c r="O21" s="111">
-        <v>9</v>
-      </c>
-      <c r="P21" s="111">
+      <c r="F21" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="99">
+        <v>9</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="91">
+        <v>9</v>
+      </c>
+      <c r="J21" s="91">
+        <v>9</v>
+      </c>
+      <c r="K21" s="91">
+        <v>9</v>
+      </c>
+      <c r="L21" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="91">
+        <v>9</v>
+      </c>
+      <c r="O21" s="91">
+        <v>9</v>
+      </c>
+      <c r="P21" s="91">
         <v>5</v>
       </c>
-      <c r="Q21" s="111">
-        <v>9</v>
-      </c>
-      <c r="R21" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="S21" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="T21" s="119">
-        <v>9</v>
-      </c>
-      <c r="U21" s="111">
-        <v>9</v>
-      </c>
-      <c r="V21" s="111">
-        <v>9</v>
-      </c>
-      <c r="W21" s="111">
-        <v>9</v>
-      </c>
-      <c r="X21" s="111">
-        <v>9</v>
-      </c>
-      <c r="Y21" s="111">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AA21" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AB21" s="111">
-        <v>9</v>
-      </c>
-      <c r="AC21" s="111">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AE21" s="111">
+      <c r="Q21" s="91">
+        <v>9</v>
+      </c>
+      <c r="R21" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="99">
+        <v>9</v>
+      </c>
+      <c r="U21" s="91">
+        <v>9</v>
+      </c>
+      <c r="V21" s="91">
+        <v>9</v>
+      </c>
+      <c r="W21" s="91">
+        <v>9</v>
+      </c>
+      <c r="X21" s="91">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="91">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA21" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="91">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="91">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE21" s="91">
         <v>5</v>
       </c>
-      <c r="AF21" s="111">
-        <v>9</v>
-      </c>
-      <c r="AG21" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AH21" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AI21" s="111">
+      <c r="AF21" s="91">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH21" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI21" s="91">
         <v>4</v>
       </c>
-      <c r="AJ21" s="111">
-        <v>9</v>
-      </c>
-      <c r="AK21" s="112">
+      <c r="AJ21" s="91">
+        <v>9</v>
+      </c>
+      <c r="AK21" s="92">
         <f>SUM(F21:AJ21)</f>
         <v>167</v>
       </c>
-      <c r="AL21" s="113">
+      <c r="AL21" s="93">
         <f>SUMIF(H21,"&gt;0",H21)+SUMIF(E21,"&gt;0",E21)</f>
         <v>0</v>
       </c>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="114"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="94"/>
     </row>
-    <row r="22" ht="20.95" customHeight="1">
-      <c r="A22" s="95"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" t="s" s="99">
+    <row r="22" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="117">
-        <v>2</v>
-      </c>
-      <c r="G22" s="117">
-        <v>2</v>
-      </c>
-      <c r="H22" s="76">
-        <v>2</v>
-      </c>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="78">
-        <v>2</v>
-      </c>
-      <c r="L22" s="116"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="78">
-        <v>2</v>
-      </c>
-      <c r="O22" s="78">
-        <v>2</v>
-      </c>
-      <c r="P22" s="78">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="117">
-        <v>2</v>
-      </c>
-      <c r="T22" s="117">
-        <v>2</v>
-      </c>
-      <c r="U22" s="78">
-        <v>2</v>
-      </c>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="78">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="78">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="117">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="117">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="116"/>
-      <c r="AC22" s="116"/>
-      <c r="AD22" s="78">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="78">
-        <v>2</v>
-      </c>
-      <c r="AF22" s="78">
-        <v>2</v>
-      </c>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="100"/>
-      <c r="AI22" s="78">
-        <v>2</v>
-      </c>
-      <c r="AJ22" s="78">
+      <c r="F22" s="97">
+        <v>2</v>
+      </c>
+      <c r="G22" s="97">
+        <v>2</v>
+      </c>
+      <c r="H22" s="61">
+        <v>2</v>
+      </c>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="63">
+        <v>2</v>
+      </c>
+      <c r="L22" s="96"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="63">
+        <v>2</v>
+      </c>
+      <c r="O22" s="63">
+        <v>2</v>
+      </c>
+      <c r="P22" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="97">
+        <v>2</v>
+      </c>
+      <c r="T22" s="97">
+        <v>2</v>
+      </c>
+      <c r="U22" s="63">
+        <v>2</v>
+      </c>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="63">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="63">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="97">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="97">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="63">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="63">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="63">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="63">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="63">
         <v>3</v>
       </c>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="104"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="84"/>
     </row>
-    <row r="23" ht="35" customHeight="1">
-      <c r="A23" s="105">
+    <row r="23" spans="1:40" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="85">
         <v>5</v>
       </c>
-      <c r="B23" t="s" s="106">
+      <c r="B23" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="107">
+      <c r="C23" s="87">
         <v>1</v>
       </c>
-      <c r="D23" t="s" s="106">
+      <c r="D23" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E23" t="s" s="108">
+      <c r="E23" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="119">
-        <v>9</v>
-      </c>
-      <c r="G23" s="119">
-        <v>9</v>
-      </c>
-      <c r="H23" s="120">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="J23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="K23" s="111">
-        <v>9</v>
-      </c>
-      <c r="L23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="M23" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="N23" s="111">
-        <v>9</v>
-      </c>
-      <c r="O23" s="111">
-        <v>9</v>
-      </c>
-      <c r="P23" s="111">
-        <v>9</v>
-      </c>
-      <c r="Q23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="R23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="S23" s="119">
-        <v>9</v>
-      </c>
-      <c r="T23" s="119">
-        <v>9</v>
-      </c>
-      <c r="U23" s="111">
-        <v>9</v>
-      </c>
-      <c r="V23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="W23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="X23" s="111">
-        <v>9</v>
-      </c>
-      <c r="Y23" s="111">
-        <v>9</v>
-      </c>
-      <c r="Z23" s="119">
-        <v>9</v>
-      </c>
-      <c r="AA23" s="119">
-        <v>9</v>
-      </c>
-      <c r="AB23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AC23" t="s" s="90">
-        <v>35</v>
-      </c>
-      <c r="AD23" s="111">
-        <v>9</v>
-      </c>
-      <c r="AE23" s="111">
-        <v>9</v>
-      </c>
-      <c r="AF23" s="111">
-        <v>9</v>
-      </c>
-      <c r="AG23" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AH23" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AI23" s="111">
-        <v>9</v>
-      </c>
-      <c r="AJ23" s="111">
+      <c r="F23" s="99">
+        <v>9</v>
+      </c>
+      <c r="G23" s="99">
+        <v>9</v>
+      </c>
+      <c r="H23" s="100">
+        <v>9</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="91">
+        <v>9</v>
+      </c>
+      <c r="L23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="91">
+        <v>9</v>
+      </c>
+      <c r="O23" s="91">
+        <v>9</v>
+      </c>
+      <c r="P23" s="91">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="99">
+        <v>9</v>
+      </c>
+      <c r="T23" s="99">
+        <v>9</v>
+      </c>
+      <c r="U23" s="91">
+        <v>9</v>
+      </c>
+      <c r="V23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="X23" s="91">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="91">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="99">
+        <v>9</v>
+      </c>
+      <c r="AA23" s="99">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC23" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD23" s="91">
+        <v>9</v>
+      </c>
+      <c r="AE23" s="91">
+        <v>9</v>
+      </c>
+      <c r="AF23" s="91">
+        <v>9</v>
+      </c>
+      <c r="AG23" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH23" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI23" s="91">
+        <v>9</v>
+      </c>
+      <c r="AJ23" s="91">
         <v>5</v>
       </c>
-      <c r="AK23" s="112">
+      <c r="AK23" s="92">
         <f>SUM(F23:AJ23)</f>
         <v>167</v>
       </c>
-      <c r="AL23" s="113">
+      <c r="AL23" s="93">
         <f>SUMIF(H23,"&gt;0",H23)+SUMIF(E23,"&gt;0",E23)</f>
         <v>9</v>
       </c>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="114"/>
+      <c r="AM23" s="93"/>
+      <c r="AN23" s="94"/>
     </row>
-    <row r="24" ht="20.95" customHeight="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" t="s" s="99">
+    <row r="24" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="95"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="78">
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="63">
         <v>5</v>
       </c>
-      <c r="J24" s="78">
+      <c r="J24" s="63">
         <v>5</v>
       </c>
-      <c r="K24" s="78">
+      <c r="K24" s="63">
         <v>5</v>
       </c>
-      <c r="L24" s="78">
+      <c r="L24" s="63">
         <v>5</v>
       </c>
-      <c r="M24" s="100"/>
-      <c r="N24" s="78">
+      <c r="M24" s="80"/>
+      <c r="N24" s="63">
         <v>5</v>
       </c>
-      <c r="O24" s="78">
+      <c r="O24" s="63">
         <v>5</v>
       </c>
-      <c r="P24" s="78">
+      <c r="P24" s="63">
         <v>5</v>
       </c>
-      <c r="Q24" s="78">
+      <c r="Q24" s="63">
         <v>5</v>
       </c>
-      <c r="R24" s="78">
+      <c r="R24" s="63">
         <v>5</v>
       </c>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="78">
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="63">
         <v>5</v>
       </c>
-      <c r="V24" s="78">
+      <c r="V24" s="63">
         <v>5</v>
       </c>
-      <c r="W24" s="78">
+      <c r="W24" s="63">
         <v>5</v>
       </c>
-      <c r="X24" s="78">
+      <c r="X24" s="63">
         <v>5</v>
       </c>
-      <c r="Y24" s="78">
+      <c r="Y24" s="63">
         <v>5</v>
       </c>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="78">
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="63">
         <v>5</v>
       </c>
-      <c r="AC24" s="78">
+      <c r="AC24" s="63">
         <v>5</v>
       </c>
-      <c r="AD24" s="78">
+      <c r="AD24" s="63">
         <v>5</v>
       </c>
-      <c r="AE24" s="78">
+      <c r="AE24" s="63">
         <v>5</v>
       </c>
-      <c r="AF24" s="78">
+      <c r="AF24" s="63">
         <v>5</v>
       </c>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="78">
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="63">
         <v>5</v>
       </c>
-      <c r="AJ24" s="78">
+      <c r="AJ24" s="63">
         <v>5</v>
       </c>
-      <c r="AK24" s="118"/>
-      <c r="AL24" s="103"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="104"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
+      <c r="AN24" s="84"/>
     </row>
-    <row r="25" ht="35" customHeight="1">
-      <c r="A25" s="105">
+    <row r="25" spans="1:40" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="85">
         <v>6</v>
       </c>
-      <c r="B25" t="s" s="106">
+      <c r="B25" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="107">
+      <c r="C25" s="87">
         <v>0.25</v>
       </c>
-      <c r="D25" t="s" s="106">
+      <c r="D25" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="E25" t="s" s="108">
+      <c r="E25" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s" s="110">
-        <v>35</v>
-      </c>
-      <c r="I25" s="111">
-        <v>2</v>
-      </c>
-      <c r="J25" s="111">
-        <v>2</v>
-      </c>
-      <c r="K25" s="111">
-        <v>2</v>
-      </c>
-      <c r="L25" s="111">
-        <v>2</v>
-      </c>
-      <c r="M25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="N25" s="111">
-        <v>2</v>
-      </c>
-      <c r="O25" s="111">
-        <v>2</v>
-      </c>
-      <c r="P25" s="111">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="111">
-        <v>2</v>
-      </c>
-      <c r="R25" s="111">
-        <v>2</v>
-      </c>
-      <c r="S25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="T25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="U25" s="111">
-        <v>2</v>
-      </c>
-      <c r="V25" s="111">
-        <v>2</v>
-      </c>
-      <c r="W25" s="111">
-        <v>2</v>
-      </c>
-      <c r="X25" s="111">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="111">
-        <v>2</v>
-      </c>
-      <c r="Z25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AA25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AB25" s="111">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="111">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="111">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="111">
-        <v>2</v>
-      </c>
-      <c r="AF25" s="111">
-        <v>2</v>
-      </c>
-      <c r="AG25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AH25" t="s" s="109">
-        <v>35</v>
-      </c>
-      <c r="AI25" s="111">
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="111">
-        <v>2</v>
-      </c>
-      <c r="AK25" s="112">
+      <c r="F25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="91">
+        <v>2</v>
+      </c>
+      <c r="J25" s="91">
+        <v>2</v>
+      </c>
+      <c r="K25" s="91">
+        <v>2</v>
+      </c>
+      <c r="L25" s="91">
+        <v>2</v>
+      </c>
+      <c r="M25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="91">
+        <v>2</v>
+      </c>
+      <c r="O25" s="91">
+        <v>2</v>
+      </c>
+      <c r="P25" s="91">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="91">
+        <v>2</v>
+      </c>
+      <c r="R25" s="91">
+        <v>2</v>
+      </c>
+      <c r="S25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="91">
+        <v>2</v>
+      </c>
+      <c r="V25" s="91">
+        <v>2</v>
+      </c>
+      <c r="W25" s="91">
+        <v>2</v>
+      </c>
+      <c r="X25" s="91">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB25" s="91">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="91">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="91">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="91">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="91">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI25" s="91">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="91">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="92">
         <f>SUM(F25:AJ25)</f>
         <v>42</v>
       </c>
-      <c r="AL25" s="113">
+      <c r="AL25" s="93">
         <f>SUMIF(H25,"&gt;0",H25)+SUMIF(E25,"&gt;0",E25)</f>
         <v>0</v>
       </c>
-      <c r="AM25" s="113"/>
-      <c r="AN25" s="114"/>
+      <c r="AM25" s="93"/>
+      <c r="AN25" s="94"/>
     </row>
-    <row r="26" ht="35.25" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" t="s" s="121">
+    <row r="26" spans="1:40" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
+      <c r="B26" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" t="s" s="123">
+      <c r="C26" s="39"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="132"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="132"/>
-      <c r="AJ26" s="132"/>
-      <c r="AK26" s="133"/>
-      <c r="AL26" s="133"/>
-      <c r="AM26" s="133"/>
-      <c r="AN26" s="132"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="158"/>
+      <c r="AE26" s="159"/>
+      <c r="AF26" s="159"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="159"/>
+      <c r="AJ26" s="159"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="160"/>
+      <c r="AN26" s="159"/>
     </row>
-    <row r="27" ht="52.5" customHeight="1">
+    <row r="27" spans="1:40" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="134"/>
-      <c r="D27" t="s" s="135">
+      <c r="C27" s="111"/>
+      <c r="D27" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s" s="136">
+      <c r="E27" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="F27" t="s" s="137">
+      <c r="F27" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="G27" t="s" s="138">
+      <c r="G27" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="H27" t="s" s="139">
+      <c r="H27" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="I27" t="s" s="140">
+      <c r="I27" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="J27" t="s" s="141">
+      <c r="J27" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="142"/>
-      <c r="L27" t="s" s="143">
+      <c r="K27" s="119"/>
+      <c r="L27" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="145"/>
-      <c r="R27" t="s" s="143">
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="148"/>
-      <c r="AG27" s="148"/>
-      <c r="AH27" s="148"/>
-      <c r="AI27" s="148"/>
-      <c r="AJ27" s="148"/>
-      <c r="AK27" s="148"/>
-      <c r="AL27" s="148"/>
-      <c r="AM27" s="148"/>
-      <c r="AN27" s="148"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="169"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="161"/>
+      <c r="AE27" s="161"/>
+      <c r="AF27" s="161"/>
+      <c r="AG27" s="161"/>
+      <c r="AH27" s="161"/>
+      <c r="AI27" s="161"/>
+      <c r="AJ27" s="161"/>
+      <c r="AK27" s="161"/>
+      <c r="AL27" s="161"/>
+      <c r="AM27" s="161"/>
+      <c r="AN27" s="161"/>
     </row>
-    <row r="28" ht="108" customHeight="1">
+    <row r="28" spans="1:40" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="150"/>
-      <c r="L28" t="s" s="151">
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="M28" t="s" s="143">
+      <c r="M28" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="145"/>
-      <c r="O28" t="s" s="143">
+      <c r="N28" s="169"/>
+      <c r="O28" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="145"/>
-      <c r="Q28" t="s" s="152">
+      <c r="P28" s="169"/>
+      <c r="Q28" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="R28" t="s" s="143">
+      <c r="R28" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="S28" s="145"/>
-      <c r="T28" t="s" s="143">
+      <c r="S28" s="169"/>
+      <c r="T28" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="U28" s="145"/>
-      <c r="V28" t="s" s="152">
+      <c r="U28" s="169"/>
+      <c r="V28" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="146"/>
+      <c r="W28" s="120"/>
       <c r="X28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="148"/>
-      <c r="AG28" s="148"/>
-      <c r="AH28" s="148"/>
-      <c r="AI28" s="148"/>
-      <c r="AJ28" s="148"/>
-      <c r="AK28" s="148"/>
-      <c r="AL28" s="148"/>
-      <c r="AM28" s="148"/>
-      <c r="AN28" s="148"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="161"/>
+      <c r="AF28" s="161"/>
+      <c r="AG28" s="161"/>
+      <c r="AH28" s="161"/>
+      <c r="AI28" s="161"/>
+      <c r="AJ28" s="161"/>
+      <c r="AK28" s="161"/>
+      <c r="AL28" s="161"/>
+      <c r="AM28" s="161"/>
+      <c r="AN28" s="161"/>
     </row>
-    <row r="29" ht="20.95" customHeight="1">
+    <row r="29" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" t="s" s="159">
+      <c r="F29" s="127"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="M29" t="s" s="160">
+      <c r="M29" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="N29" t="s" s="161">
+      <c r="N29" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="O29" t="s" s="162">
+      <c r="O29" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="P29" t="s" s="163">
+      <c r="P29" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="Q29" t="s" s="159">
+      <c r="Q29" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="R29" t="s" s="164">
+      <c r="R29" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="S29" t="s" s="165">
+      <c r="S29" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="T29" t="s" s="162">
+      <c r="T29" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="U29" t="s" s="166">
+      <c r="U29" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="V29" t="s" s="159">
+      <c r="V29" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="W29" s="167"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="168"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="168"/>
-      <c r="AF29" s="168"/>
-      <c r="AG29" s="168"/>
-      <c r="AH29" s="168"/>
-      <c r="AI29" s="168"/>
-      <c r="AJ29" s="168"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="139"/>
+      <c r="AH29" s="139"/>
+      <c r="AI29" s="139"/>
+      <c r="AJ29" s="139"/>
       <c r="AK29" s="4"/>
-      <c r="AL29" s="169"/>
-      <c r="AM29" s="169"/>
+      <c r="AL29" s="140"/>
+      <c r="AM29" s="140"/>
       <c r="AN29" s="4"/>
     </row>
-    <row r="30" ht="20.45" customHeight="1">
+    <row r="30" spans="1:40" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" t="s" s="171">
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="M30" t="s" s="172">
+      <c r="M30" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="N30" t="s" s="173">
+      <c r="N30" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="O30" t="s" s="174">
+      <c r="O30" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="P30" t="s" s="175">
+      <c r="P30" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q30" t="s" s="171">
+      <c r="Q30" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="R30" t="s" s="176">
+      <c r="R30" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="S30" t="s" s="177">
+      <c r="S30" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="T30" t="s" s="174">
+      <c r="T30" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="U30" t="s" s="178">
+      <c r="U30" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="V30" t="s" s="171">
+      <c r="V30" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="W30" s="167"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="168"/>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="168"/>
-      <c r="AH30" s="168"/>
-      <c r="AI30" s="168"/>
-      <c r="AJ30" s="168"/>
+      <c r="W30" s="138"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="139"/>
+      <c r="AH30" s="139"/>
+      <c r="AI30" s="139"/>
+      <c r="AJ30" s="139"/>
       <c r="AK30" s="7"/>
-      <c r="AL30" s="169"/>
-      <c r="AM30" s="169"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="140"/>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" ht="22" customHeight="1">
+    <row r="31" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" t="s" s="171">
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="M31" t="s" s="172">
+      <c r="M31" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="N31" t="s" s="173">
+      <c r="N31" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="O31" t="s" s="174">
+      <c r="O31" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="P31" t="s" s="175">
+      <c r="P31" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" t="s" s="171">
+      <c r="Q31" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="R31" s="176"/>
-      <c r="S31" s="177"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="178"/>
-      <c r="V31" s="171"/>
-      <c r="W31" s="167"/>
-      <c r="X31" s="168"/>
-      <c r="Y31" s="168"/>
-      <c r="Z31" s="168"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="168"/>
-      <c r="AF31" s="168"/>
-      <c r="AG31" s="168"/>
-      <c r="AH31" s="168"/>
-      <c r="AI31" s="168"/>
-      <c r="AJ31" s="168"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="142"/>
+      <c r="W31" s="138"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="139"/>
+      <c r="AH31" s="139"/>
+      <c r="AI31" s="139"/>
+      <c r="AJ31" s="139"/>
       <c r="AK31" s="7"/>
-      <c r="AL31" s="180"/>
-      <c r="AM31" s="180"/>
+      <c r="AL31" s="151"/>
+      <c r="AM31" s="151"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" ht="18.5" customHeight="1">
+    <row r="32" spans="1:40" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="181"/>
-      <c r="L32" t="s" s="171">
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="M32" t="s" s="172">
+      <c r="M32" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="N32" t="s" s="173">
+      <c r="N32" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="O32" t="s" s="174">
+      <c r="O32" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="P32" t="s" s="175">
+      <c r="P32" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q32" t="s" s="171">
+      <c r="Q32" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="R32" s="176"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="178"/>
-      <c r="V32" s="171"/>
-      <c r="W32" s="167"/>
-      <c r="X32" s="168"/>
-      <c r="Y32" s="168"/>
-      <c r="Z32" s="168"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
-      <c r="AC32" s="168"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="168"/>
-      <c r="AF32" s="168"/>
-      <c r="AG32" s="168"/>
-      <c r="AH32" s="168"/>
-      <c r="AI32" s="168"/>
-      <c r="AJ32" s="168"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="142"/>
+      <c r="W32" s="138"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="139"/>
+      <c r="AJ32" s="139"/>
       <c r="AK32" s="7"/>
       <c r="AL32" s="6"/>
       <c r="AM32" s="6"/>
       <c r="AN32" s="7"/>
     </row>
-    <row r="33" ht="18.5" customHeight="1">
+    <row r="33" spans="1:40" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="181"/>
-      <c r="L33" t="s" s="171">
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="M33" t="s" s="172">
+      <c r="M33" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="N33" t="s" s="173">
+      <c r="N33" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="O33" t="s" s="174">
+      <c r="O33" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="P33" t="s" s="175">
+      <c r="P33" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q33" t="s" s="171">
+      <c r="Q33" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R33" s="176"/>
-      <c r="S33" s="177"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="178"/>
-      <c r="V33" s="171"/>
-      <c r="W33" s="167"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="168"/>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="168"/>
-      <c r="AH33" s="168"/>
-      <c r="AI33" s="168"/>
-      <c r="AJ33" s="168"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="142"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="139"/>
+      <c r="AH33" s="139"/>
+      <c r="AI33" s="139"/>
+      <c r="AJ33" s="139"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="6"/>
       <c r="AM33" s="6"/>
       <c r="AN33" s="7"/>
     </row>
-    <row r="34" ht="19" customHeight="1">
+    <row r="34" spans="1:40" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="181"/>
-      <c r="L34" t="s" s="171">
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="M34" t="s" s="172">
+      <c r="M34" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="N34" t="s" s="173">
+      <c r="N34" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="O34" t="s" s="174">
+      <c r="O34" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="P34" t="s" s="175">
+      <c r="P34" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="Q34" t="s" s="182">
+      <c r="Q34" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="R34" t="s" s="176">
+      <c r="R34" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="S34" t="s" s="177">
+      <c r="S34" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="T34" t="s" s="174">
+      <c r="T34" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="U34" t="s" s="178">
+      <c r="U34" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="V34" t="s" s="171">
+      <c r="V34" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="W34" s="167"/>
-      <c r="X34" s="168"/>
-      <c r="Y34" s="168"/>
-      <c r="Z34" s="168"/>
-      <c r="AA34" s="168"/>
-      <c r="AB34" s="168"/>
-      <c r="AC34" s="168"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="168"/>
-      <c r="AF34" s="168"/>
-      <c r="AG34" s="168"/>
-      <c r="AH34" s="168"/>
-      <c r="AI34" s="168"/>
-      <c r="AJ34" s="168"/>
+      <c r="W34" s="138"/>
+      <c r="X34" s="139"/>
+      <c r="Y34" s="139"/>
+      <c r="Z34" s="139"/>
+      <c r="AA34" s="139"/>
+      <c r="AB34" s="139"/>
+      <c r="AC34" s="139"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="139"/>
+      <c r="AF34" s="139"/>
+      <c r="AG34" s="139"/>
+      <c r="AH34" s="139"/>
+      <c r="AI34" s="139"/>
+      <c r="AJ34" s="139"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="6"/>
       <c r="AM34" s="6"/>
@@ -5459,11 +5441,8 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AE4:AJ4"/>
-    <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="AE3:AJ3"/>
-    <mergeCell ref="AD26:AN26"/>
-    <mergeCell ref="AD27:AN27"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M8:U8"/>
     <mergeCell ref="AD28:AN28"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H29:K29"/>
@@ -5476,14 +5455,17 @@
     <mergeCell ref="L27:Q27"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="R27:V27"/>
-    <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AN11:AN13"/>
     <mergeCell ref="R28:S28"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="AE4:AJ4"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AE3:AJ3"/>
+    <mergeCell ref="AD26:AN26"/>
+    <mergeCell ref="AD27:AN27"/>
+    <mergeCell ref="AK8:AN8"/>
   </mergeCells>
-  <pageMargins left="0.23622" right="0.23622" top="0.669291" bottom="0.433071" header="0.511811" footer="0.23622"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="48" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0.23622000000000001" right="0.23622000000000001" top="0.66929099999999997" bottom="0.43307099999999998" header="0.51181100000000002" footer="0.23622000000000001"/>
+  <pageSetup scale="48" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
